--- a/latex/spreadsheets/cyd_hist.xlsx
+++ b/latex/spreadsheets/cyd_hist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\r13_enlight\branches\MeshExtraction\Demonstrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\master\latex\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="cyd-hist" sheetId="1" r:id="rId1"/>
@@ -582,38 +582,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -646,179 +615,185 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'cyd-hist'!$A$3:$A$59</c:f>
+              <c:f>'cyd-hist'!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
@@ -826,10 +801,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cyd-hist'!$B$3:$B$59</c:f>
+              <c:f>'cyd-hist'!$B$2:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -840,13 +815,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -861,7 +836,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -879,106 +854,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2</c:v>
@@ -987,7 +962,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -996,9 +971,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1014,11 +995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="192666368"/>
-        <c:axId val="193136600"/>
+        <c:axId val="446121656"/>
+        <c:axId val="446122048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192666368"/>
+        <c:axId val="446121656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,20 +1056,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193136600"/>
+        <c:crossAx val="446122048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1000"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193136600"/>
+        <c:axId val="446122048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1143,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192666368"/>
+        <c:crossAx val="446121656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1164,12 +1145,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1752,16 +1728,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114580</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2046,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2034,7 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2066,393 +2042,396 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2460,39 +2439,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2500,7 +2479,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2508,7 +2487,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2516,17 +2495,25 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>2</v>
       </c>
     </row>

--- a/latex/spreadsheets/cyd_hist.xlsx
+++ b/latex/spreadsheets/cyd_hist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="cyd-hist" sheetId="1" r:id="rId1"/>
@@ -995,11 +995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="446121656"/>
-        <c:axId val="446122048"/>
+        <c:axId val="382395592"/>
+        <c:axId val="382391672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446121656"/>
+        <c:axId val="382395592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446122048"/>
+        <c:crossAx val="382391672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1066,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446122048"/>
+        <c:axId val="382391672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1124,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446121656"/>
+        <c:crossAx val="382395592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1734,10 +1734,10 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85275</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
